--- a/data/projets/7_analyse_NYC_Taxi.xlsx
+++ b/data/projets/7_analyse_NYC_Taxi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dim\clone_repo\portfolio\data\projets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DFB95B-5BB7-4C88-A8F1-BEF3760212D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6772DC22-1119-495F-9007-CBDF715E485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48AAF2E7-BD52-4126-95BB-1554F7CE70D9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48AAF2E7-BD52-4126-95BB-1554F7CE70D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,13 +249,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,7 +615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC43A243-20A8-4CB0-8AB2-10C849C7B62F}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -595,212 +626,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
